--- a/Resources/2004/Basic_Percentile_2004.xlsx
+++ b/Resources/2004/Basic_Percentile_2004.xlsx
@@ -1402,7 +1402,7 @@
     <t>LeBron James</t>
   </si>
   <si>
-    <t>Tracy McGrady*</t>
+    <t>Tracy McGrady</t>
   </si>
   <si>
     <t>Tim Duncan</t>
@@ -1450,7 +1450,7 @@
     <t>Donyell Marshall</t>
   </si>
   <si>
-    <t>Karl Malone*</t>
+    <t>Karl Malone</t>
   </si>
   <si>
     <t>Rashard Lewis</t>
@@ -1492,7 +1492,7 @@
     <t>Richard Jefferson</t>
   </si>
   <si>
-    <t>Jason Kidd*</t>
+    <t>Jason Kidd</t>
   </si>
   <si>
     <t>Cuttino Mobley</t>
@@ -1507,7 +1507,7 @@
     <t>Doug Christie</t>
   </si>
   <si>
-    <t>Shaquille O'Neal*</t>
+    <t>Shaquille O'Neal</t>
   </si>
   <si>
     <t>Joe Johnson</t>
@@ -1525,7 +1525,7 @@
     <t>Kerry Kittles</t>
   </si>
   <si>
-    <t>Ray Allen*</t>
+    <t>Ray Allen</t>
   </si>
   <si>
     <t>Eddie Jones</t>
@@ -1564,13 +1564,13 @@
     <t>Manu Ginobili</t>
   </si>
   <si>
-    <t>Allen Iverson*</t>
+    <t>Allen Iverson</t>
   </si>
   <si>
     <t>Kirk Hinrich</t>
   </si>
   <si>
-    <t>Gary Payton*</t>
+    <t>Gary Payton</t>
   </si>
   <si>
     <t>Kurt Thomas</t>
@@ -1633,7 +1633,7 @@
     <t>Marko Jaric</t>
   </si>
   <si>
-    <t>Yao Ming*</t>
+    <t>Yao Ming</t>
   </si>
   <si>
     <t>Al Harrington</t>
@@ -1795,7 +1795,7 @@
     <t>Brian Grant</t>
   </si>
   <si>
-    <t>Steve Nash*</t>
+    <t>Steve Nash</t>
   </si>
   <si>
     <t>David Wesley</t>
@@ -1831,7 +1831,7 @@
     <t>Brian Cardinal</t>
   </si>
   <si>
-    <t>Dikembe Mutombo*</t>
+    <t>Dikembe Mutombo</t>
   </si>
   <si>
     <t>Antonio McDyess</t>
@@ -1894,7 +1894,7 @@
     <t>Gordan Giricek</t>
   </si>
   <si>
-    <t>Scottie Pippen*</t>
+    <t>Scottie Pippen</t>
   </si>
   <si>
     <t>Jarvis Hayes</t>
@@ -2014,7 +2014,7 @@
     <t>Allan Houston</t>
   </si>
   <si>
-    <t>Reggie Miller*</t>
+    <t>Reggie Miller</t>
   </si>
   <si>
     <t>Shandon Anderson</t>
@@ -2065,7 +2065,7 @@
     <t>Loren Woods</t>
   </si>
   <si>
-    <t>Alonzo Mourning*</t>
+    <t>Alonzo Mourning</t>
   </si>
   <si>
     <t>Vitaly Potapenko</t>
